--- a/第03组/03项目计划表.xlsx
+++ b/第03组/03项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -36,80 +36,125 @@
     <t>总结：</t>
   </si>
   <si>
+    <t>陈柯赞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎安生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王智永</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑海文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵华亮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶田</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求规格说明书，2.分析对象、确定对象用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求规格说明书，2.画管路员用例分析图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求规格说明书，2.画普通用户用例分析图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求规格说明书，2.完成用户登录用例的分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求规格说明书，2.完成用户注册用例的分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求规格说明书，2.完成用户忘记密码用例的分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王智永</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录老师的点评，快速排查的误区及协助完善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善用例分析文档</t>
+  </si>
+  <si>
+    <t>完善用例分析文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>日期：2018.10.08 第六周周一</t>
-  </si>
-  <si>
-    <t>陈柯赞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黎安生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王智永</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑海文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵华亮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶田</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.熟悉需求规格说明书，2.分析对象、确定对象用例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.熟悉需求规格说明书，2.画管路员用例分析图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.熟悉需求规格说明书，2.画普通用户用例分析图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.熟悉需求规格说明书，2.完成用户登录用例的分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.熟悉需求规格说明书，2.完成用户注册用例的分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.熟悉需求规格说明书，2.完成用户忘记密码用例的分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王智永</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录老师的点评，快速排查的误区及协助完善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.10 第六周周三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>完善用例分析文档</t>
-  </si>
-  <si>
-    <t>完善用例分析文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员登录系统、禁用用户、开启用户、关闭用户用例规约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员关闭群、开启群、普通用户注册用例规约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录、找回密码、创建用户群用例规约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出用户群、编辑群资料、接受用户加入群用例规约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝用户加入群、清退群成员、申请加入用户群、退出用户群用例规约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看群成员位置信息、电话联系群成员、查看群成员个人信息用例规约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,13 +216,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,11 +241,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -508,12 +565,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -531,97 +588,97 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -639,84 +696,206 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A29:D30"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第03组/03项目计划表.xlsx
+++ b/第03组/03项目计划表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhw\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB98FD33-5A1B-4874-B8F9-38D1166C087B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -155,14 +161,42 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.11第六周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员登录系统、禁用用户、开启用户、关闭用户界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录、找回密码、创建用户群界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员关闭群、开启群界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出用户群、编辑群资料、接受用户加入群界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝用户加入群、清退群成员界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看群成员位置信息界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +215,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -231,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,6 +292,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -259,6 +304,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -307,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,9 +388,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,6 +440,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,11 +632,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -888,8 +970,118 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A39:D40"/>
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
@@ -899,12 +1091,12 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -918,7 +1110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/第03组/03项目计划表.xlsx
+++ b/第03组/03项目计划表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhw\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB98FD33-5A1B-4874-B8F9-38D1166C087B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="54">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -189,13 +183,53 @@
   </si>
   <si>
     <t>查看群成员位置信息界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.15第七周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库用户表chat_user设计及E-R图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库管理员表chat_administrator设计及E-R图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库群组表chat_group设计及E-R图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库chat_group_user设计及E-R图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库聊天表chat_message设计及E-R图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库定位表chat_user_gps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们使用startUml画数据库E-R图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：经过小组讨论之后觉得之前的界面确实是有点简陋，美感不足，无法吸引用户，觉得一个好的界面不仅可以吸引用户，还可以让我们的价值得到提升，苦寻之下我们终于有了创作的源泉，于是我们墨刀设计我们小组专属的app界面，我们坚信天道酬勤，苦心人天不负，百二秦关终属楚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -267,13 +301,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,17 +354,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,7 +435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,26 +468,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,23 +503,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -632,27 +678,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="54.125" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="4" max="4" width="89.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -741,26 +787,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -849,26 +895,26 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
@@ -957,26 +1003,26 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -996,7 +1042,7 @@
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1008,7 +1054,7 @@
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1020,7 +1066,7 @@
       <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1032,7 +1078,7 @@
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1044,7 +1090,7 @@
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1056,7 +1102,7 @@
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1065,21 +1111,122 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="D43:D48"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:D40"/>
     <mergeCell ref="A29:D30"/>
@@ -1096,7 +1243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1110,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/第03组/03项目计划表.xlsx
+++ b/第03组/03项目计划表.xlsx
@@ -190,30 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>数据库用户表chat_user设计及E-R图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库管理员表chat_administrator设计及E-R图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库群组表chat_group设计及E-R图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库chat_group_user设计及E-R图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库聊天表chat_message设计及E-R图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库定位表chat_user_gps</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>我们使用startUml画数据库E-R图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -223,6 +199,30 @@
   </si>
   <si>
     <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库用户chat_use模块，设计出er模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库管理员chat_administrator模块，设计出er模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库群组chat_group模块，设计出er模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库chat_group_user模块，设计出er模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库聊天chat_message模块，设计出er模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库定位chat_user_gps模块，设计出er模型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -357,13 +357,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:D48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -693,12 +693,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -787,26 +787,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -895,26 +895,26 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
@@ -1003,26 +1003,26 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1111,26 +1111,26 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="A39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1151,11 +1151,11 @@
         <v>6</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -1163,7 +1163,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="8"/>
@@ -1173,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="8"/>
@@ -1183,7 +1183,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="8"/>
@@ -1193,7 +1193,7 @@
         <v>10</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="8"/>
@@ -1203,24 +1203,24 @@
         <v>11</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="A49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/第03组/03项目计划表.xlsx
+++ b/第03组/03项目计划表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28703" windowHeight="13164"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -180,60 +180,73 @@
     <t>总结：今晚的任务由于我们觉得有点难度，所以大家集思广益，一起讨论完成的，看起来效果还是不错的。</t>
   </si>
   <si>
+    <t>日期：2018.10.16第七周周四</t>
+  </si>
+  <si>
+    <t>项目评审</t>
+  </si>
+  <si>
     <t>总结：经过评审之后，我们发现我们与其他的小组存在着很大的差异，让我们望尘莫及啊，学海无涯苦作舟，我们更要打起精神来，得不遗余力的去做接下来的工作啊，不然我们之前的努力就要付之东流了，为了不负岁月年华，要更努力一些</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目评审</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.16第七周周四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.22第七周周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.22第八周周一</t>
   </si>
   <si>
     <t>设计开发概要</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用mysql数据库配置与建用户登录表和注册表</t>
+  </si>
+  <si>
+    <t>编写登录界面</t>
   </si>
   <si>
     <t>配置git</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用mysql数据库配置与建用户登录表和注册表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写登录界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>编写注册界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>找图片和素材</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：我们小组完成了注册和登录的界面，也有了代码共享，可以很好的进行团队之间的开发，总之我们可以进行编码了，下一步我们就会进入了非常哭的阶段了，但是我们千万要气馁，因为还有很多人正在努力的奋斗的。</t>
+  </si>
+  <si>
+    <t>日期：2018.10.22第八周周三</t>
+  </si>
+  <si>
+    <t>数据库接口编写</t>
+  </si>
+  <si>
+    <t>使用websocket与后台交互</t>
+  </si>
+  <si>
+    <t>了解websocket</t>
+  </si>
+  <si>
+    <t>了解websocket与json解析</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,31 +258,360 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -338,53 +680,345 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -675,1005 +1309,1127 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="71.125" customWidth="1"/>
+    <col min="2" max="2" width="71.1296296296296" customWidth="1"/>
     <col min="3" max="3" width="70.25" customWidth="1"/>
     <col min="4" max="4" width="107.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:4">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:4">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:4">
+      <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:4">
+      <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+    <row r="13" s="1" customFormat="1" spans="1:4">
+      <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:4">
+      <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:4">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:4">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:4">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:4">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:4">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:4">
+      <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:4">
+      <c r="A22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+    <row r="23" s="1" customFormat="1" spans="1:4">
+      <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:4">
+      <c r="A24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:4">
+      <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:4">
+      <c r="A26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:4">
+      <c r="A27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:4">
+      <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:4">
+      <c r="A29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:4">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:4">
+      <c r="A31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:4">
+      <c r="A32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+    <row r="33" s="1" customFormat="1" spans="1:4">
+      <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:4">
+      <c r="A34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:4">
+      <c r="A35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:4">
+      <c r="A36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:4">
+      <c r="A37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:4">
+      <c r="A38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="10" t="s">
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:4">
+      <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:4">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:4">
+      <c r="A41" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:4">
+      <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
+    <row r="43" s="1" customFormat="1" spans="1:4">
+      <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+    <row r="44" s="1" customFormat="1" spans="1:4">
+      <c r="A44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+      <c r="C44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:4">
+      <c r="A45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+      <c r="C45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:4">
+      <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+      <c r="C46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:4">
+      <c r="A47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
+      <c r="C47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:4">
+      <c r="A48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="10" t="s">
+      <c r="B48" s="8"/>
+      <c r="C48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:4">
+      <c r="A49" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="6" t="s">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:4">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:4">
+      <c r="A51" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:4">
+      <c r="A52" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
+    <row r="53" s="1" customFormat="1" spans="1:4">
+      <c r="A53" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
+      <c r="C53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:4">
+      <c r="A54" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+      <c r="C54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:4">
+      <c r="A55" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
+      <c r="C55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:4">
+      <c r="A56" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
+      <c r="C56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:4">
+      <c r="A57" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
+      <c r="C57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:4">
+      <c r="A58" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="10" t="s">
+      <c r="C58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:4">
+      <c r="A59" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="6" t="s">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:4">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:4">
+      <c r="A61" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:4">
+      <c r="A62" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
+    <row r="63" s="1" customFormat="1" spans="1:4">
+      <c r="A63" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
+      <c r="C63" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:4">
+      <c r="A64" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:4">
+      <c r="A65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3" t="s">
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:4">
+      <c r="A66" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="3" t="s">
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:4">
+      <c r="A67" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="3" t="s">
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:4">
+      <c r="A68" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-    </row>
-    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="10" t="s">
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:4">
+      <c r="A69" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-    </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-    </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="6" t="s">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:4">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:4">
+      <c r="A71" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:4">
+      <c r="A72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:4">
+      <c r="A73" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:4">
+      <c r="A74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:4">
+      <c r="A75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:4">
+      <c r="A76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:4">
+      <c r="A77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:4">
+      <c r="A78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:4">
+      <c r="A79" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="2" t="s">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:4">
+      <c r="A81" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:4">
+      <c r="A82" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B82" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D82" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="3" t="s">
+    <row r="83" s="1" customFormat="1" spans="1:4">
+      <c r="A83" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="7"/>
-    </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="3" t="s">
+      <c r="B83" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="1:4">
+      <c r="A84" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+      <c r="B84" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="1:4">
+      <c r="A85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3" t="s">
+      <c r="B85" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="10"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:4">
+      <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="3" t="s">
+      <c r="B86" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="10"/>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="1:4">
+      <c r="A87" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="3" t="s">
+      <c r="B87" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="10"/>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="1:4">
+      <c r="A88" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-    </row>
-    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-    </row>
-    <row r="80" spans="1:4" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-    </row>
-    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="2" t="s">
+      <c r="B88" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="1:4">
+      <c r="A89" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:4">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="1:4">
+      <c r="A91" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" s="1" customFormat="1" spans="1:4">
+      <c r="A92" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B92" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C92" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D92" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="3" t="s">
+    <row r="93" s="1" customFormat="1" spans="1:4">
+      <c r="A93" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="7"/>
-    </row>
-    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="3" t="s">
+      <c r="B93" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" s="1" customFormat="1" spans="1:4">
+      <c r="A94" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
+      <c r="B94" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="10"/>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="1:4">
+      <c r="A95" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="8"/>
-    </row>
-    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="3" t="s">
+      <c r="B95" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="10"/>
+    </row>
+    <row r="96" s="1" customFormat="1" spans="1:4">
+      <c r="A96" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="8"/>
-    </row>
-    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="3" t="s">
+      <c r="B96" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96" s="10"/>
+    </row>
+    <row r="97" s="1" customFormat="1" spans="1:4">
+      <c r="A97" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B97" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="10"/>
+    </row>
+    <row r="98" s="1" customFormat="1" spans="1:4">
+      <c r="A98" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="8"/>
-    </row>
-    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="9"/>
-    </row>
-    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-    </row>
-    <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
+      <c r="C98" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="D98" s="11"/>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="1:4">
+      <c r="A99" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" s="1" customFormat="1" spans="1:4">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="30">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A41:D41"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="C73:C78"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="D73:D78"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="D93:D98"/>
     <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="D43:D48"/>
     <mergeCell ref="A49:D50"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="D83:D88"/>
     <mergeCell ref="A89:D90"/>
     <mergeCell ref="A69:D70"/>
-    <mergeCell ref="D53:D58"/>
     <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="C73:C78"/>
-    <mergeCell ref="D73:D78"/>
     <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A99:D100"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/第03组/03项目计划表.xlsx
+++ b/第03组/03项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -213,7 +213,7 @@
     <t>总结：我们小组完成了注册和登录的界面，也有了代码共享，可以很好的进行团队之间的开发，总之我们可以进行编码了，下一步我们就会进入了非常哭的阶段了，但是我们千万要气馁，因为还有很多人正在努力的奋斗的。</t>
   </si>
   <si>
-    <t>日期：2018.10.22第八周周三</t>
+    <t>日期：2018.10.24第八周周三</t>
   </si>
   <si>
     <t>数据库接口编写</t>
@@ -228,7 +228,22 @@
     <t>了解websocket与json解析</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>日期：2018.10.25第八周周四</t>
+  </si>
+  <si>
+    <t>响应前台的注册和找回密码的请求</t>
+  </si>
+  <si>
+    <t>响应前台的首页请求</t>
+  </si>
+  <si>
+    <t>完善注册界面及请求</t>
+  </si>
+  <si>
+    <t>完善登录界面及请求</t>
+  </si>
+  <si>
+    <t>完善找回密码界面及请求</t>
   </si>
 </sst>
 </file>
@@ -236,12 +251,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,16 +273,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,15 +283,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,15 +304,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,32 +319,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,16 +347,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,8 +386,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -397,21 +403,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,19 +426,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,163 +528,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,45 +682,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -736,16 +697,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,6 +716,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,155 +748,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -934,10 +934,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1315,10 +1312,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1332,1039 +1329,1140 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5"/>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5"/>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:4">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5"/>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:4">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5"/>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5"/>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:4">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5"/>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:4">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:4">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:4">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:4">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:4">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:4">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:4">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:4">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:4">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:4">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:4">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:4">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:4">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:4">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:4">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:4">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:4">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:4">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:4">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:4">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:4">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:4">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:4">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:4">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="9" t="s">
+      <c r="C43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:4">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="10"/>
+      <c r="C44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="9"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:4">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="10"/>
+      <c r="C45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:4">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="10"/>
+      <c r="C46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:4">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="10"/>
+      <c r="C47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:4">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="11"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:4">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:4">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:4">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:4">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:4">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="9"/>
+      <c r="C53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="8"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:4">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="10"/>
+      <c r="C54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:4">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="10"/>
+      <c r="C55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="9"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:4">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="10"/>
+      <c r="C56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="9"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:4">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="10"/>
+      <c r="C57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="9"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:4">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="11"/>
+      <c r="C58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="10"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:4">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:4">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:4">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:4">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:4">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="9"/>
+      <c r="C63" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="8"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:4">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:4">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:4">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:4">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:4">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:4">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="1:4">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="1:4">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:4">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:4">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="9"/>
+      <c r="C73" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="8"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:4">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:4">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="1:4">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:4">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:4">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:4">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
     </row>
     <row r="80" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="1:4">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
     </row>
     <row r="82" s="1" customFormat="1" spans="1:4">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:4">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C83" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="9"/>
+      <c r="C83" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="8"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:4">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C84" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="10"/>
+      <c r="C84" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="9"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="1:4">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C85" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="10"/>
+      <c r="C85" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="9"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:4">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="10"/>
+      <c r="C86" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="9"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:4">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C87" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="10"/>
+      <c r="C87" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="9"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="1:4">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="12">
         <v>0.12</v>
       </c>
-      <c r="D88" s="11"/>
+      <c r="D88" s="10"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:4">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="1:4">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="1:4">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="1:4">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" spans="1:4">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="9"/>
+      <c r="C93" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="8"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="1:4">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="10"/>
+      <c r="C94" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="9"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="1:4">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="10"/>
+      <c r="C95" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="9"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="1:4">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C96" s="12"/>
-      <c r="D96" s="10"/>
+      <c r="C96" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="9"/>
     </row>
     <row r="97" s="1" customFormat="1" spans="1:4">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C97" s="12"/>
-      <c r="D97" s="10"/>
+      <c r="C97" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="9"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="1:4">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="12">
         <v>0.2</v>
       </c>
-      <c r="D98" s="11"/>
+      <c r="D98" s="10"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="1:4">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
     </row>
     <row r="100" s="1" customFormat="1" spans="1:4">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-    </row>
-    <row r="103" spans="3:3">
-      <c r="C103" t="s">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" s="1" customFormat="1" spans="1:4">
+      <c r="A101" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" s="1" customFormat="1" spans="1:4">
+      <c r="A102" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="1" spans="1:4">
+      <c r="A103" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="8"/>
+    </row>
+    <row r="104" s="1" customFormat="1" spans="1:4">
+      <c r="A104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="D104" s="9"/>
+    </row>
+    <row r="105" s="1" customFormat="1" spans="1:4">
+      <c r="A105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="9"/>
+    </row>
+    <row r="106" s="1" customFormat="1" spans="1:4">
+      <c r="A106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="9"/>
+    </row>
+    <row r="107" s="1" customFormat="1" spans="1:4">
+      <c r="A107" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C107" s="11"/>
+      <c r="D107" s="9"/>
+    </row>
+    <row r="108" s="1" customFormat="1" spans="1:4">
+      <c r="A108" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="10"/>
+    </row>
+    <row r="109" s="1" customFormat="1" spans="1:4">
+      <c r="A109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+    </row>
+    <row r="110" s="1" customFormat="1" spans="1:4">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="33">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -2375,6 +2473,7 @@
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A101:D101"/>
     <mergeCell ref="B63:B68"/>
     <mergeCell ref="B73:B78"/>
     <mergeCell ref="C63:C68"/>
@@ -2385,6 +2484,7 @@
     <mergeCell ref="D73:D78"/>
     <mergeCell ref="D83:D88"/>
     <mergeCell ref="D93:D98"/>
+    <mergeCell ref="D103:D108"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A29:D30"/>
@@ -2395,6 +2495,7 @@
     <mergeCell ref="A59:D60"/>
     <mergeCell ref="A79:D80"/>
     <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A109:D110"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第03组/03项目计划表.xlsx
+++ b/第03组/03项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -280,6 +280,27 @@
   </si>
   <si>
     <t>响应进入群聊的数据响应</t>
+  </si>
+  <si>
+    <t>总结：我们现在交互还是这么不是很顺利，经常遇到困难，我们应该反省一下自己到底哪里错了，找一下自己的原因，这样才能走得更远啊，但是我们一定不能气馁，距离任务任重而道远，千万不要放弃。</t>
+  </si>
+  <si>
+    <t>日期：2018.10.25第九周周四</t>
+  </si>
+  <si>
+    <t>pc端注册界面编码</t>
+  </si>
+  <si>
+    <t>pc端登录界面编码</t>
+  </si>
+  <si>
+    <t>获取百度地图到底的位置信息</t>
+  </si>
+  <si>
+    <t>申请加入群聊界面及请求</t>
+  </si>
+  <si>
+    <t>拒绝加入群聊界面及请求</t>
   </si>
 </sst>
 </file>
@@ -287,19 +308,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,15 +330,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,83 +398,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,16 +438,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,19 +454,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -475,25 +489,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,151 +657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,11 +753,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,17 +777,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,220 +835,191 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1359,10 +1370,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:D130"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1722,7 +1733,7 @@
       <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -1734,7 +1745,7 @@
       <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1746,7 +1757,7 @@
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -1758,7 +1769,7 @@
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -1770,7 +1781,7 @@
       <c r="A37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1782,7 +1793,7 @@
       <c r="A38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -1830,13 +1841,13 @@
       <c r="A43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1844,59 +1855,59 @@
       <c r="A44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="9"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:4">
       <c r="A45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="9"/>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:4">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="9"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:4">
       <c r="A47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="9"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:4">
       <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="10"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:4">
       <c r="A49" s="5" t="s">
@@ -1938,73 +1949,73 @@
       <c r="A53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="8"/>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:4">
       <c r="A54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="9"/>
+      <c r="D54" s="8"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:4">
       <c r="A55" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="9"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:4">
       <c r="A56" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="9"/>
+      <c r="D56" s="8"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:4">
       <c r="A57" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="9"/>
+      <c r="D57" s="8"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:4">
       <c r="A58" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="10"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:4">
       <c r="A59" s="5" t="s">
@@ -2046,53 +2057,53 @@
       <c r="A63" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="8"/>
+      <c r="C63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:4">
       <c r="A64" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:4">
       <c r="A65" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:4">
       <c r="A66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:4">
       <c r="A67" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:4">
       <c r="A68" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:4">
       <c r="A69" s="5" t="s">
@@ -2134,53 +2145,53 @@
       <c r="A73" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="8"/>
+      <c r="C73" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="7"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:4">
       <c r="A74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:4">
       <c r="A75" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="1:4">
       <c r="A76" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:4">
       <c r="A77" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:4">
       <c r="A78" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:4">
       <c r="A79" s="5" t="s">
@@ -2222,73 +2233,73 @@
       <c r="A83" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C83" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="8"/>
+      <c r="C83" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="7"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:4">
       <c r="A84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="9"/>
+      <c r="C84" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="8"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="1:4">
       <c r="A85" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="9"/>
+      <c r="C85" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="8"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:4">
       <c r="A86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="9"/>
+      <c r="C86" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="8"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:4">
       <c r="A87" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="9"/>
+      <c r="C87" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="8"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="1:4">
       <c r="A88" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="11">
         <v>0.12</v>
       </c>
-      <c r="D88" s="10"/>
+      <c r="D88" s="9"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:4">
       <c r="A89" s="5" t="s">
@@ -2330,73 +2341,73 @@
       <c r="A93" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C93" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="8"/>
+      <c r="C93" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="7"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="1:4">
       <c r="A94" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="9"/>
+      <c r="C94" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="8"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="1:4">
       <c r="A95" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="9"/>
+      <c r="C95" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="8"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="1:4">
       <c r="A96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C96" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="9"/>
+      <c r="C96" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="8"/>
     </row>
     <row r="97" s="1" customFormat="1" spans="1:4">
       <c r="A97" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C97" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="9"/>
+      <c r="C97" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="8"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="1:4">
       <c r="A98" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C98" s="12">
+      <c r="C98" s="11">
         <v>0.2</v>
       </c>
-      <c r="D98" s="10"/>
+      <c r="D98" s="9"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="1:4">
       <c r="A99" s="5" t="s">
@@ -2438,73 +2449,73 @@
       <c r="A103" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C103" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="8"/>
+      <c r="C103" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="7"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="1:4">
       <c r="A104" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C104" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" s="9"/>
+      <c r="C104" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="8"/>
     </row>
     <row r="105" s="1" customFormat="1" spans="1:4">
       <c r="A105" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C105" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D105" s="9"/>
+      <c r="C105" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="8"/>
     </row>
     <row r="106" s="1" customFormat="1" spans="1:4">
       <c r="A106" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C106" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" s="9"/>
+      <c r="C106" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="8"/>
     </row>
     <row r="107" s="1" customFormat="1" spans="1:4">
       <c r="A107" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C107" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" s="9"/>
+      <c r="C107" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="8"/>
     </row>
     <row r="108" s="1" customFormat="1" spans="1:4">
       <c r="A108" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C108" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="10"/>
+      <c r="C108" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="9"/>
     </row>
     <row r="109" s="1" customFormat="1" spans="1:4">
       <c r="A109" s="5" t="s">
@@ -2546,73 +2557,73 @@
       <c r="A113" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C113" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" s="8"/>
+      <c r="C113" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="7"/>
     </row>
     <row r="114" s="1" customFormat="1" spans="1:4">
       <c r="A114" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C114" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="9"/>
+      <c r="C114" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="8"/>
     </row>
     <row r="115" s="1" customFormat="1" spans="1:4">
       <c r="A115" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C115" s="12">
+      <c r="C115" s="11">
         <v>0.7</v>
       </c>
-      <c r="D115" s="9"/>
+      <c r="D115" s="8"/>
     </row>
     <row r="116" s="1" customFormat="1" spans="1:4">
       <c r="A116" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C116" s="12">
+      <c r="C116" s="11">
         <v>0.5</v>
       </c>
-      <c r="D116" s="9"/>
+      <c r="D116" s="8"/>
     </row>
     <row r="117" s="1" customFormat="1" spans="1:4">
       <c r="A117" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C117" s="12">
+      <c r="C117" s="11">
         <v>0.6</v>
       </c>
-      <c r="D117" s="9"/>
+      <c r="D117" s="8"/>
     </row>
     <row r="118" s="1" customFormat="1" spans="1:4">
       <c r="A118" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C118" s="12">
+      <c r="C118" s="11">
         <v>0.5</v>
       </c>
-      <c r="D118" s="10"/>
+      <c r="D118" s="9"/>
     </row>
     <row r="119" s="1" customFormat="1" spans="1:4">
       <c r="A119" s="5" t="s">
@@ -2654,65 +2665,77 @@
       <c r="A123" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C123" s="11"/>
-      <c r="D123" s="8"/>
+      <c r="C123" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="7"/>
     </row>
     <row r="124" s="1" customFormat="1" spans="1:4">
       <c r="A124" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C124" s="11"/>
-      <c r="D124" s="9"/>
+      <c r="C124" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="8"/>
     </row>
     <row r="125" s="1" customFormat="1" spans="1:4">
       <c r="A125" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C125" s="11"/>
-      <c r="D125" s="9"/>
+      <c r="C125" s="11">
+        <v>1</v>
+      </c>
+      <c r="D125" s="8"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="1:4">
       <c r="A126" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C126" s="11"/>
-      <c r="D126" s="9"/>
+      <c r="C126" s="11">
+        <v>1</v>
+      </c>
+      <c r="D126" s="8"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="1:4">
       <c r="A127" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C127" s="11"/>
-      <c r="D127" s="9"/>
+      <c r="C127" s="11">
+        <v>1</v>
+      </c>
+      <c r="D127" s="8"/>
     </row>
     <row r="128" s="1" customFormat="1" spans="1:4">
       <c r="A128" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C128" s="12"/>
-      <c r="D128" s="10"/>
+      <c r="C128" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="D128" s="9"/>
     </row>
     <row r="129" s="1" customFormat="1" spans="1:4">
       <c r="A129" s="5" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -2724,8 +2747,104 @@
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
     </row>
+    <row r="131" s="1" customFormat="1" spans="1:4">
+      <c r="A131" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" s="1" customFormat="1" spans="1:4">
+      <c r="A132" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" s="1" customFormat="1" spans="1:4">
+      <c r="A133" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" s="1" customFormat="1" spans="1:4">
+      <c r="A134" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C134" s="10"/>
+      <c r="D134" s="8"/>
+    </row>
+    <row r="135" s="1" customFormat="1" spans="1:4">
+      <c r="A135" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="8"/>
+    </row>
+    <row r="136" s="1" customFormat="1" spans="1:4">
+      <c r="A136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C136" s="10"/>
+      <c r="D136" s="8"/>
+    </row>
+    <row r="137" s="1" customFormat="1" spans="1:4">
+      <c r="A137" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C137" s="10"/>
+      <c r="D137" s="8"/>
+    </row>
+    <row r="138" s="1" customFormat="1" spans="1:4">
+      <c r="A138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C138" s="11"/>
+      <c r="D138" s="9"/>
+    </row>
+    <row r="139" s="1" customFormat="1" spans="1:4">
+      <c r="A139" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+    </row>
+    <row r="140" s="1" customFormat="1" spans="1:4">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="42">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -2739,6 +2858,7 @@
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A111:D111"/>
     <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A131:D131"/>
     <mergeCell ref="B63:B68"/>
     <mergeCell ref="B73:B78"/>
     <mergeCell ref="C63:C68"/>
@@ -2752,6 +2872,7 @@
     <mergeCell ref="D103:D108"/>
     <mergeCell ref="D113:D118"/>
     <mergeCell ref="D123:D128"/>
+    <mergeCell ref="D133:D138"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A29:D30"/>
@@ -2765,6 +2886,7 @@
     <mergeCell ref="A109:D110"/>
     <mergeCell ref="A119:D120"/>
     <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A139:D140"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第03组/03项目计划表.xlsx
+++ b/第03组/03项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -297,10 +297,25 @@
     <t>获取百度地图到底的位置信息</t>
   </si>
   <si>
-    <t>申请加入群聊界面及请求</t>
+    <t xml:space="preserve"> 申请加入群聊界面即请求</t>
   </si>
   <si>
     <t>拒绝加入群聊界面及请求</t>
+  </si>
+  <si>
+    <t>总结：我们现在已经开始pc端的编写，但是遇到挺大的困难的，虽然我们界面差不多弄好了，但是我们距离任务还是相隔十万八千里啊，加油啊，我的小伙伴们</t>
+  </si>
+  <si>
+    <t>日期：2018.10.25第十周周一</t>
+  </si>
+  <si>
+    <t>pc端首页界面</t>
+  </si>
+  <si>
+    <t>管理员首页界面</t>
+  </si>
+  <si>
+    <t>整合所有界面</t>
   </si>
 </sst>
 </file>
@@ -308,10 +323,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -330,22 +345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -353,8 +352,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,13 +362,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,9 +375,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,22 +384,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,23 +422,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,7 +453,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,7 +467,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,7 +504,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,7 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,7 +582,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,67 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,49 +666,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,19 +678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,26 +792,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -830,6 +825,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -843,10 +858,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -855,137 +870,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,6 +1035,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1370,10 +1394,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139:D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2762,8 +2786,8 @@
       <c r="B132" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>3</v>
+      <c r="C132" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>4</v>
@@ -2776,7 +2800,9 @@
       <c r="B133" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C133" s="10"/>
+      <c r="C133" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="D133" s="7"/>
     </row>
     <row r="134" s="1" customFormat="1" spans="1:4">
@@ -2786,7 +2812,9 @@
       <c r="B134" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C134" s="10"/>
+      <c r="C134" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="D134" s="8"/>
     </row>
     <row r="135" s="1" customFormat="1" spans="1:4">
@@ -2796,7 +2824,9 @@
       <c r="B135" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C135" s="10"/>
+      <c r="C135" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="D135" s="8"/>
     </row>
     <row r="136" s="1" customFormat="1" spans="1:4">
@@ -2806,7 +2836,9 @@
       <c r="B136" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C136" s="10"/>
+      <c r="C136" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="D136" s="8"/>
     </row>
     <row r="137" s="1" customFormat="1" spans="1:4">
@@ -2816,7 +2848,9 @@
       <c r="B137" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C137" s="10"/>
+      <c r="C137" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="D137" s="8"/>
     </row>
     <row r="138" s="1" customFormat="1" spans="1:4">
@@ -2826,12 +2860,14 @@
       <c r="B138" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C138" s="11"/>
+      <c r="C138" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="D138" s="9"/>
     </row>
     <row r="139" s="1" customFormat="1" spans="1:4">
       <c r="A139" s="5" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -2843,8 +2879,96 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
+    <row r="141" s="1" customFormat="1" spans="1:4">
+      <c r="A141" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" s="1" customFormat="1" spans="1:4">
+      <c r="A142" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="10"/>
+      <c r="D142" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" s="1" customFormat="1" spans="1:4">
+      <c r="A143" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="7"/>
+    </row>
+    <row r="144" s="1" customFormat="1" spans="1:4">
+      <c r="A144" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C144" s="10"/>
+      <c r="D144" s="8"/>
+    </row>
+    <row r="145" s="1" customFormat="1" spans="1:4">
+      <c r="A145" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C145" s="10"/>
+      <c r="D145" s="8"/>
+    </row>
+    <row r="146" s="1" customFormat="1" spans="1:4">
+      <c r="A146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="13"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="8"/>
+    </row>
+    <row r="147" s="1" customFormat="1" spans="1:4">
+      <c r="A147" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="13"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="8"/>
+    </row>
+    <row r="148" s="1" customFormat="1" spans="1:4">
+      <c r="A148" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148" s="14"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="9"/>
+    </row>
+    <row r="149" s="1" customFormat="1" spans="1:4">
+      <c r="A149" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+    </row>
+    <row r="150" s="1" customFormat="1" spans="1:4">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="46">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -2859,8 +2983,10 @@
     <mergeCell ref="A111:D111"/>
     <mergeCell ref="A121:D121"/>
     <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A141:D141"/>
     <mergeCell ref="B63:B68"/>
     <mergeCell ref="B73:B78"/>
+    <mergeCell ref="B145:B148"/>
     <mergeCell ref="C63:C68"/>
     <mergeCell ref="C73:C78"/>
     <mergeCell ref="D43:D48"/>
@@ -2873,6 +2999,7 @@
     <mergeCell ref="D113:D118"/>
     <mergeCell ref="D123:D128"/>
     <mergeCell ref="D133:D138"/>
+    <mergeCell ref="D143:D148"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A29:D30"/>
@@ -2887,6 +3014,7 @@
     <mergeCell ref="A119:D120"/>
     <mergeCell ref="A129:D130"/>
     <mergeCell ref="A139:D140"/>
+    <mergeCell ref="A149:D150"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第03组/03项目计划表.xlsx
+++ b/第03组/03项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -252,7 +252,7 @@
     <t>总结：我们是使用了http和websocket协议响应前台的，websocket可以跟前台建立长久的链接，并且服务端可以主动的发送信息给客户端，是一个很不错的协议，他是html5下的产物，并不是新的协议，现在我们的进度还是非常的慢，希望我们小组在努力，把我们的的项目再上一个层次，也是为了自己的水平上一个阶梯，好了，我们要开始好好努力吧</t>
   </si>
   <si>
-    <t>日期：2018.10.25第九周周一</t>
+    <t>日期：2018.10.29第九周周一</t>
   </si>
   <si>
     <t>响应前台的登录，并且返回客户端的所有信息</t>
@@ -273,7 +273,7 @@
     <t>总结：我们虽然如今的进度有点慢，但是我们不要气馁，如果我们自己都气馁了，那么还有谁来求我们呢？所以我们一定不要放弃，虽然我们现在遇到了点困难，特别是前后端的交互，和数据的传递，希望大家打起精神了，攻克困难</t>
   </si>
   <si>
-    <t>日期：2018.10.25第九周周三</t>
+    <t>日期：2018.10.31第九周周三</t>
   </si>
   <si>
     <t>响应前台搜索群的请求</t>
@@ -285,7 +285,7 @@
     <t>总结：我们现在交互还是这么不是很顺利，经常遇到困难，我们应该反省一下自己到底哪里错了，找一下自己的原因，这样才能走得更远啊，但是我们一定不能气馁，距离任务任重而道远，千万不要放弃。</t>
   </si>
   <si>
-    <t>日期：2018.10.25第九周周四</t>
+    <t>日期：2018.11.1第九周周四</t>
   </si>
   <si>
     <t>pc端注册界面编码</t>
@@ -306,7 +306,7 @@
     <t>总结：我们现在已经开始pc端的编写，但是遇到挺大的困难的，虽然我们界面差不多弄好了，但是我们距离任务还是相隔十万八千里啊，加油啊，我的小伙伴们</t>
   </si>
   <si>
-    <t>日期：2018.10.25第十周周一</t>
+    <t>日期：2018.11.5第十周周一</t>
   </si>
   <si>
     <t>pc端首页界面</t>
@@ -316,6 +316,21 @@
   </si>
   <si>
     <t>整合所有界面</t>
+  </si>
+  <si>
+    <t>总结：我们pc端编写也真是各种错误都有，我们真的是百般无奈啊，这也只能怪我们自己没有学好扎实的知识啊，我们和前端的交互也是各种的报错，数据传递也是一样，我们需要更加努力了，虽然我们欠缺了点技术，但这并不能阻止我们前进的步伐啊</t>
+  </si>
+  <si>
+    <t>日期：2018.11.7第十周周三</t>
+  </si>
+  <si>
+    <t>pc端聊天数据传递</t>
+  </si>
+  <si>
+    <t>与后台交互</t>
+  </si>
+  <si>
+    <t>日期：2018.11.8第十周周四</t>
   </si>
 </sst>
 </file>
@@ -323,9 +338,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -352,53 +367,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,15 +400,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,8 +443,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,19 +481,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -498,7 +513,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,19 +669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,31 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,115 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,32 +768,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,17 +807,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,6 +827,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,149 +873,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1044,6 +1059,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1394,16 +1412,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139:D140"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161:D161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="63.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="112.444444444444" customWidth="1"/>
+    <col min="2" max="2" width="63.8916666666667" customWidth="1"/>
+    <col min="3" max="3" width="112.441666666667" customWidth="1"/>
     <col min="4" max="4" width="88" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2906,7 +2924,9 @@
       <c r="B143" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C143" s="10"/>
+      <c r="C143" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="D143" s="7"/>
     </row>
     <row r="144" s="1" customFormat="1" spans="1:4">
@@ -2916,46 +2936,50 @@
       <c r="B144" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C144" s="10"/>
+      <c r="C144" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="D144" s="8"/>
     </row>
     <row r="145" s="1" customFormat="1" spans="1:4">
       <c r="A145" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C145" s="10"/>
+      <c r="C145" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="D145" s="8"/>
     </row>
     <row r="146" s="1" customFormat="1" spans="1:4">
       <c r="A146" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B146" s="13"/>
-      <c r="C146" s="10"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="13"/>
       <c r="D146" s="8"/>
     </row>
     <row r="147" s="1" customFormat="1" spans="1:4">
       <c r="A147" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B147" s="13"/>
-      <c r="C147" s="10"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="13"/>
       <c r="D147" s="8"/>
     </row>
     <row r="148" s="1" customFormat="1" spans="1:4">
       <c r="A148" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B148" s="14"/>
-      <c r="C148" s="10"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="14"/>
       <c r="D148" s="9"/>
     </row>
     <row r="149" s="1" customFormat="1" spans="1:4">
       <c r="A149" s="5" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -2967,8 +2991,184 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
     </row>
+    <row r="151" s="1" customFormat="1" spans="1:4">
+      <c r="A151" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" s="1" customFormat="1" spans="1:4">
+      <c r="A152" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="10"/>
+      <c r="D152" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" s="1" customFormat="1" spans="1:4">
+      <c r="A153" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C153" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D153" s="7"/>
+    </row>
+    <row r="154" s="1" customFormat="1" spans="1:4">
+      <c r="A154" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="8"/>
+    </row>
+    <row r="155" s="1" customFormat="1" spans="1:4">
+      <c r="A155" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C155" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D155" s="8"/>
+    </row>
+    <row r="156" s="1" customFormat="1" spans="1:4">
+      <c r="A156" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="8"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="8"/>
+    </row>
+    <row r="157" s="1" customFormat="1" spans="1:4">
+      <c r="A157" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="8"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="8"/>
+    </row>
+    <row r="158" s="1" customFormat="1" spans="1:4">
+      <c r="A158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" s="9"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="9"/>
+    </row>
+    <row r="159" s="1" customFormat="1" spans="1:4">
+      <c r="A159" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+    </row>
+    <row r="160" s="1" customFormat="1" spans="1:4">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+    </row>
+    <row r="161" s="1" customFormat="1" spans="1:4">
+      <c r="A161" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" s="1" customFormat="1" spans="1:4">
+      <c r="A162" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="10"/>
+      <c r="D162" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" s="1" customFormat="1" spans="1:4">
+      <c r="A163" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C163" s="15"/>
+      <c r="D163" s="7"/>
+    </row>
+    <row r="164" s="1" customFormat="1" spans="1:4">
+      <c r="A164" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="14"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="8"/>
+    </row>
+    <row r="165" s="1" customFormat="1" spans="1:4">
+      <c r="A165" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C165" s="15"/>
+      <c r="D165" s="8"/>
+    </row>
+    <row r="166" s="1" customFormat="1" spans="1:4">
+      <c r="A166" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="8"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="8"/>
+    </row>
+    <row r="167" s="1" customFormat="1" spans="1:4">
+      <c r="A167" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" s="8"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="8"/>
+    </row>
+    <row r="168" s="1" customFormat="1" spans="1:4">
+      <c r="A168" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" s="9"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="9"/>
+    </row>
+    <row r="169" s="1" customFormat="1" spans="1:4">
+      <c r="A169" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+    </row>
+    <row r="170" s="1" customFormat="1" spans="1:4">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="61">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -2984,11 +3184,22 @@
     <mergeCell ref="A121:D121"/>
     <mergeCell ref="A131:D131"/>
     <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A161:D161"/>
     <mergeCell ref="B63:B68"/>
     <mergeCell ref="B73:B78"/>
     <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B165:B168"/>
     <mergeCell ref="C63:C68"/>
     <mergeCell ref="C73:C78"/>
+    <mergeCell ref="C145:C148"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C155:C158"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="C165:C168"/>
     <mergeCell ref="D43:D48"/>
     <mergeCell ref="D53:D58"/>
     <mergeCell ref="D63:D68"/>
@@ -3000,6 +3211,8 @@
     <mergeCell ref="D123:D128"/>
     <mergeCell ref="D133:D138"/>
     <mergeCell ref="D143:D148"/>
+    <mergeCell ref="D153:D158"/>
+    <mergeCell ref="D163:D168"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A29:D30"/>
@@ -3015,6 +3228,8 @@
     <mergeCell ref="A129:D130"/>
     <mergeCell ref="A139:D140"/>
     <mergeCell ref="A149:D150"/>
+    <mergeCell ref="A159:D160"/>
+    <mergeCell ref="A169:D170"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3031,7 +3246,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3048,7 +3263,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第03组/03项目计划表.xlsx
+++ b/第03组/03项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="27885" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -331,6 +331,30 @@
   </si>
   <si>
     <t>日期：2018.11.8第十周周四</t>
+  </si>
+  <si>
+    <t>总结：我们的交互现在有点慢了，我们得找一下是什么原因啊，我们服务端的编码基本上是弄好了，客户端的需要加把劲啊</t>
+  </si>
+  <si>
+    <t>日期：2018.11.12第十一周周一</t>
+  </si>
+  <si>
+    <t>管理端的编码与维护</t>
+  </si>
+  <si>
+    <t>pc端的申请加入群聊与数据传递</t>
+  </si>
+  <si>
+    <t>写一个服务类，每隔几秒获取经纬度，并发送到后台</t>
+  </si>
+  <si>
+    <t>申请加入群聊的数据传递，并展示在客户端上</t>
+  </si>
+  <si>
+    <t>写个封装类来解析后台传递的json数据</t>
+  </si>
+  <si>
+    <t>管理端的图片收集</t>
   </si>
 </sst>
 </file>
@@ -339,8 +363,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -360,6 +384,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -367,16 +399,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,7 +417,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,19 +447,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,21 +469,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -459,23 +490,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,18 +506,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -513,7 +537,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,31 +585,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,49 +633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,13 +645,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,19 +663,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,37 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,30 +792,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -807,26 +807,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,8 +845,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,10 +897,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -885,137 +909,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,15 +1074,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1412,10 +1427,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161:D161"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169:D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2948,7 +2963,7 @@
       <c r="B145" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="C145" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D145" s="8"/>
@@ -2958,7 +2973,7 @@
         <v>12</v>
       </c>
       <c r="B146" s="8"/>
-      <c r="C146" s="13"/>
+      <c r="C146" s="8"/>
       <c r="D146" s="8"/>
     </row>
     <row r="147" s="1" customFormat="1" spans="1:4">
@@ -2966,7 +2981,7 @@
         <v>14</v>
       </c>
       <c r="B147" s="8"/>
-      <c r="C147" s="13"/>
+      <c r="C147" s="8"/>
       <c r="D147" s="8"/>
     </row>
     <row r="148" s="1" customFormat="1" spans="1:4">
@@ -2974,7 +2989,7 @@
         <v>16</v>
       </c>
       <c r="B148" s="9"/>
-      <c r="C148" s="14"/>
+      <c r="C148" s="9"/>
       <c r="D148" s="9"/>
     </row>
     <row r="149" s="1" customFormat="1" spans="1:4">
@@ -3015,10 +3030,10 @@
       <c r="A153" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B153" s="12" t="s">
+      <c r="B153" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C153" s="15">
+      <c r="C153" s="12">
         <v>0.1</v>
       </c>
       <c r="D153" s="7"/>
@@ -3027,8 +3042,8 @@
       <c r="A154" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B154" s="14"/>
-      <c r="C154" s="14"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
       <c r="D154" s="8"/>
     </row>
     <row r="155" s="1" customFormat="1" spans="1:4">
@@ -3038,7 +3053,7 @@
       <c r="B155" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C155" s="15">
+      <c r="C155" s="12">
         <v>0.1</v>
       </c>
       <c r="D155" s="8"/>
@@ -3048,7 +3063,7 @@
         <v>12</v>
       </c>
       <c r="B156" s="8"/>
-      <c r="C156" s="13"/>
+      <c r="C156" s="8"/>
       <c r="D156" s="8"/>
     </row>
     <row r="157" s="1" customFormat="1" spans="1:4">
@@ -3056,7 +3071,7 @@
         <v>14</v>
       </c>
       <c r="B157" s="8"/>
-      <c r="C157" s="13"/>
+      <c r="C157" s="8"/>
       <c r="D157" s="8"/>
     </row>
     <row r="158" s="1" customFormat="1" spans="1:4">
@@ -3064,7 +3079,7 @@
         <v>16</v>
       </c>
       <c r="B158" s="9"/>
-      <c r="C158" s="14"/>
+      <c r="C158" s="9"/>
       <c r="D158" s="9"/>
     </row>
     <row r="159" s="1" customFormat="1" spans="1:4">
@@ -3105,18 +3120,20 @@
       <c r="A163" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="12" t="s">
+      <c r="B163" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C163" s="15"/>
+      <c r="C163" s="12">
+        <v>0.2</v>
+      </c>
       <c r="D163" s="7"/>
     </row>
     <row r="164" s="1" customFormat="1" spans="1:4">
       <c r="A164" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B164" s="14"/>
-      <c r="C164" s="14"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
       <c r="D164" s="8"/>
     </row>
     <row r="165" s="1" customFormat="1" spans="1:4">
@@ -3126,7 +3143,9 @@
       <c r="B165" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C165" s="15"/>
+      <c r="C165" s="12">
+        <v>0.2</v>
+      </c>
       <c r="D165" s="8"/>
     </row>
     <row r="166" s="1" customFormat="1" spans="1:4">
@@ -3134,7 +3153,7 @@
         <v>12</v>
       </c>
       <c r="B166" s="8"/>
-      <c r="C166" s="13"/>
+      <c r="C166" s="8"/>
       <c r="D166" s="8"/>
     </row>
     <row r="167" s="1" customFormat="1" spans="1:4">
@@ -3142,7 +3161,7 @@
         <v>14</v>
       </c>
       <c r="B167" s="8"/>
-      <c r="C167" s="13"/>
+      <c r="C167" s="8"/>
       <c r="D167" s="8"/>
     </row>
     <row r="168" s="1" customFormat="1" spans="1:4">
@@ -3150,12 +3169,12 @@
         <v>16</v>
       </c>
       <c r="B168" s="9"/>
-      <c r="C168" s="14"/>
+      <c r="C168" s="9"/>
       <c r="D168" s="9"/>
     </row>
     <row r="169" s="1" customFormat="1" spans="1:4">
       <c r="A169" s="5" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -3167,8 +3186,102 @@
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
     </row>
+    <row r="171" s="1" customFormat="1" spans="1:4">
+      <c r="A171" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+    </row>
+    <row r="172" s="1" customFormat="1" spans="1:4">
+      <c r="A172" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="10"/>
+      <c r="D172" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" s="1" customFormat="1" spans="1:4">
+      <c r="A173" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C173" s="12"/>
+      <c r="D173" s="7"/>
+    </row>
+    <row r="174" s="1" customFormat="1" spans="1:4">
+      <c r="A174" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C174" s="9"/>
+      <c r="D174" s="8"/>
+    </row>
+    <row r="175" s="1" customFormat="1" spans="1:4">
+      <c r="A175" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C175" s="11"/>
+      <c r="D175" s="8"/>
+    </row>
+    <row r="176" s="1" customFormat="1" spans="1:4">
+      <c r="A176" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C176" s="11"/>
+      <c r="D176" s="8"/>
+    </row>
+    <row r="177" s="1" customFormat="1" spans="1:4">
+      <c r="A177" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C177" s="11"/>
+      <c r="D177" s="8"/>
+    </row>
+    <row r="178" s="1" customFormat="1" spans="1:4">
+      <c r="A178" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C178" s="11"/>
+      <c r="D178" s="9"/>
+    </row>
+    <row r="179" s="1" customFormat="1" spans="1:4">
+      <c r="A179" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+    </row>
+    <row r="180" s="1" customFormat="1" spans="1:4">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="65">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -3186,6 +3299,7 @@
     <mergeCell ref="A141:D141"/>
     <mergeCell ref="A151:D151"/>
     <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A171:D171"/>
     <mergeCell ref="B63:B68"/>
     <mergeCell ref="B73:B78"/>
     <mergeCell ref="B145:B148"/>
@@ -3200,6 +3314,7 @@
     <mergeCell ref="C155:C158"/>
     <mergeCell ref="C163:C164"/>
     <mergeCell ref="C165:C168"/>
+    <mergeCell ref="C173:C174"/>
     <mergeCell ref="D43:D48"/>
     <mergeCell ref="D53:D58"/>
     <mergeCell ref="D63:D68"/>
@@ -3213,6 +3328,7 @@
     <mergeCell ref="D143:D148"/>
     <mergeCell ref="D153:D158"/>
     <mergeCell ref="D163:D168"/>
+    <mergeCell ref="D173:D178"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A29:D30"/>
@@ -3230,6 +3346,7 @@
     <mergeCell ref="A149:D150"/>
     <mergeCell ref="A159:D160"/>
     <mergeCell ref="A169:D170"/>
+    <mergeCell ref="A179:D180"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第03组/03项目计划表.xlsx
+++ b/第03组/03项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -339,7 +339,7 @@
     <t>日期：2018.11.12第十一周周一</t>
   </si>
   <si>
-    <t>管理端的编码与维护</t>
+    <t>管理端的界面设计编码</t>
   </si>
   <si>
     <t>pc端的申请加入群聊与数据传递</t>
@@ -355,6 +355,24 @@
   </si>
   <si>
     <t>管理端的图片收集</t>
+  </si>
+  <si>
+    <t>总结：现在我们的时间越来越来紧了，但是我们还有很多事情没有做完啊，主要的地理位置的问题，也就是我们还差显示所有成员的地理位置，只要我们走出了这步，就离成功又近了一步，加油啊，小伙伴们。</t>
+  </si>
+  <si>
+    <t>日期：2018.11.14第十一周周三</t>
+  </si>
+  <si>
+    <t>管理端的管理</t>
+  </si>
+  <si>
+    <t>pc端的发布公告与数据传递</t>
+  </si>
+  <si>
+    <t>群发信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -362,8 +380,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -384,16 +402,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,9 +438,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,11 +467,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,35 +500,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,29 +530,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -521,10 +538,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -537,7 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,7 +567,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,31 +681,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,127 +729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,17 +810,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,6 +824,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,26 +848,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,9 +869,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,10 +915,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -909,137 +927,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1077,6 +1095,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1427,10 +1457,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169:D170"/>
+      <selection activeCell="A181" sqref="A181:D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3201,7 +3231,7 @@
       <c r="B172" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="10"/>
+      <c r="C172" s="11"/>
       <c r="D172" s="3" t="s">
         <v>4</v>
       </c>
@@ -3213,7 +3243,9 @@
       <c r="B173" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C173" s="12"/>
+      <c r="C173" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="D173" s="7"/>
     </row>
     <row r="174" s="1" customFormat="1" spans="1:4">
@@ -3223,7 +3255,9 @@
       <c r="B174" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C174" s="9"/>
+      <c r="C174" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D174" s="8"/>
     </row>
     <row r="175" s="1" customFormat="1" spans="1:4">
@@ -3233,7 +3267,9 @@
       <c r="B175" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C175" s="11"/>
+      <c r="C175" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="D175" s="8"/>
     </row>
     <row r="176" s="1" customFormat="1" spans="1:4">
@@ -3243,7 +3279,9 @@
       <c r="B176" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C176" s="11"/>
+      <c r="C176" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="D176" s="8"/>
     </row>
     <row r="177" s="1" customFormat="1" spans="1:4">
@@ -3253,7 +3291,9 @@
       <c r="B177" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C177" s="11"/>
+      <c r="C177" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="D177" s="8"/>
     </row>
     <row r="178" s="1" customFormat="1" spans="1:4">
@@ -3263,12 +3303,14 @@
       <c r="B178" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C178" s="11"/>
+      <c r="C178" s="11">
+        <v>0.5</v>
+      </c>
       <c r="D178" s="9"/>
     </row>
     <row r="179" s="1" customFormat="1" spans="1:4">
       <c r="A179" s="5" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -3280,8 +3322,100 @@
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
+    <row r="181" s="1" customFormat="1" spans="1:4">
+      <c r="A181" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+    </row>
+    <row r="182" s="1" customFormat="1" spans="1:4">
+      <c r="A182" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="10"/>
+      <c r="D182" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" s="1" customFormat="1" spans="1:4">
+      <c r="A183" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C183" s="11"/>
+      <c r="D183" s="7"/>
+    </row>
+    <row r="184" s="1" customFormat="1" spans="1:4">
+      <c r="A184" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C184" s="11"/>
+      <c r="D184" s="8"/>
+    </row>
+    <row r="185" s="1" customFormat="1" spans="1:4">
+      <c r="A185" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C185" s="11"/>
+      <c r="D185" s="8"/>
+    </row>
+    <row r="186" s="1" customFormat="1" spans="1:4">
+      <c r="A186" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" s="15"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="8"/>
+    </row>
+    <row r="187" s="1" customFormat="1" spans="1:4">
+      <c r="A187" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187" s="16"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="8"/>
+    </row>
+    <row r="188" s="1" customFormat="1" spans="1:4">
+      <c r="A188" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D188" s="9"/>
+    </row>
+    <row r="189" s="1" customFormat="1" spans="1:4">
+      <c r="A189" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+    </row>
+    <row r="190" s="1" customFormat="1" spans="1:4">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="68">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -3300,6 +3434,7 @@
     <mergeCell ref="A151:D151"/>
     <mergeCell ref="A161:D161"/>
     <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A181:D181"/>
     <mergeCell ref="B63:B68"/>
     <mergeCell ref="B73:B78"/>
     <mergeCell ref="B145:B148"/>
@@ -3307,6 +3442,7 @@
     <mergeCell ref="B155:B158"/>
     <mergeCell ref="B163:B164"/>
     <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B185:B187"/>
     <mergeCell ref="C63:C68"/>
     <mergeCell ref="C73:C78"/>
     <mergeCell ref="C145:C148"/>
@@ -3314,7 +3450,6 @@
     <mergeCell ref="C155:C158"/>
     <mergeCell ref="C163:C164"/>
     <mergeCell ref="C165:C168"/>
-    <mergeCell ref="C173:C174"/>
     <mergeCell ref="D43:D48"/>
     <mergeCell ref="D53:D58"/>
     <mergeCell ref="D63:D68"/>
@@ -3329,6 +3464,7 @@
     <mergeCell ref="D153:D158"/>
     <mergeCell ref="D163:D168"/>
     <mergeCell ref="D173:D178"/>
+    <mergeCell ref="D183:D188"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A29:D30"/>
@@ -3347,6 +3483,7 @@
     <mergeCell ref="A159:D160"/>
     <mergeCell ref="A169:D170"/>
     <mergeCell ref="A179:D180"/>
+    <mergeCell ref="A189:D190"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第03组/03项目计划表.xlsx
+++ b/第03组/03项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27885" windowHeight="9720"/>
+    <workbookView windowWidth="27885" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -366,10 +366,25 @@
     <t>管理端的管理</t>
   </si>
   <si>
+    <t>管理端维护与管理先暂停</t>
+  </si>
+  <si>
     <t>pc端的发布公告与数据传递</t>
   </si>
   <si>
     <t>群发信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完成 </t>
+  </si>
+  <si>
+    <t>总结：昨天的任务似乎完成的不是很理想，我们争取明天把这个任务完成，这个任务虽有些艰巨，但是我们不能被这些艰巨而止步啊</t>
+  </si>
+  <si>
+    <t>日期：2018.11.15第十一周周四</t>
+  </si>
+  <si>
+    <t>与app前端数据维护与传输</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -381,9 +396,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -409,10 +424,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -424,7 +448,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,15 +469,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,11 +515,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -483,29 +539,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,35 +547,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -555,7 +570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,7 +588,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,13 +624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +642,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,37 +678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,13 +690,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,49 +714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +726,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,11 +825,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,15 +845,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,6 +860,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,32 +914,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,10 +930,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,137 +942,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1100,13 +1115,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1457,10 +1481,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181:D181"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191:D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3349,43 +3373,51 @@
       <c r="B183" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C183" s="11"/>
-      <c r="D183" s="7"/>
+      <c r="C183" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="184" s="1" customFormat="1" spans="1:4">
       <c r="A184" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C184" s="11"/>
+        <v>117</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="D184" s="8"/>
     </row>
     <row r="185" s="1" customFormat="1" spans="1:4">
       <c r="A185" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B185" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C185" s="11"/>
+      <c r="B185" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C185" s="14">
+        <v>0.2</v>
+      </c>
       <c r="D185" s="8"/>
     </row>
     <row r="186" s="1" customFormat="1" spans="1:4">
       <c r="A186" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="15"/>
-      <c r="C186" s="11"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="15"/>
       <c r="D186" s="8"/>
     </row>
     <row r="187" s="1" customFormat="1" spans="1:4">
       <c r="A187" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B187" s="16"/>
-      <c r="C187" s="11"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="16"/>
       <c r="D187" s="8"/>
     </row>
     <row r="188" s="1" customFormat="1" spans="1:4">
@@ -3396,13 +3428,13 @@
         <v>112</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D188" s="9"/>
     </row>
     <row r="189" s="1" customFormat="1" spans="1:4">
       <c r="A189" s="5" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -3414,8 +3446,96 @@
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
+    <row r="191" s="1" customFormat="1" spans="1:4">
+      <c r="A191" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+    </row>
+    <row r="192" s="1" customFormat="1" spans="1:4">
+      <c r="A192" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="10"/>
+      <c r="D192" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" s="1" customFormat="1" spans="1:4">
+      <c r="A193" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C193" s="11"/>
+      <c r="D193" s="7"/>
+    </row>
+    <row r="194" s="1" customFormat="1" spans="1:4">
+      <c r="A194" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="18"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="8"/>
+    </row>
+    <row r="195" s="1" customFormat="1" spans="1:4">
+      <c r="A195" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C195" s="11"/>
+      <c r="D195" s="8"/>
+    </row>
+    <row r="196" s="1" customFormat="1" spans="1:4">
+      <c r="A196" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="19"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="8"/>
+    </row>
+    <row r="197" s="1" customFormat="1" spans="1:4">
+      <c r="A197" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B197" s="19"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="8"/>
+    </row>
+    <row r="198" s="1" customFormat="1" spans="1:4">
+      <c r="A198" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B198" s="18"/>
+      <c r="C198" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D198" s="9"/>
+    </row>
+    <row r="199" s="1" customFormat="1" spans="1:4">
+      <c r="A199" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+    </row>
+    <row r="200" s="1" customFormat="1" spans="1:4">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="74">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -3435,6 +3555,7 @@
     <mergeCell ref="A161:D161"/>
     <mergeCell ref="A171:D171"/>
     <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A191:D191"/>
     <mergeCell ref="B63:B68"/>
     <mergeCell ref="B73:B78"/>
     <mergeCell ref="B145:B148"/>
@@ -3443,6 +3564,8 @@
     <mergeCell ref="B163:B164"/>
     <mergeCell ref="B165:B168"/>
     <mergeCell ref="B185:B187"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="B195:B198"/>
     <mergeCell ref="C63:C68"/>
     <mergeCell ref="C73:C78"/>
     <mergeCell ref="C145:C148"/>
@@ -3450,6 +3573,7 @@
     <mergeCell ref="C155:C158"/>
     <mergeCell ref="C163:C164"/>
     <mergeCell ref="C165:C168"/>
+    <mergeCell ref="C185:C187"/>
     <mergeCell ref="D43:D48"/>
     <mergeCell ref="D53:D58"/>
     <mergeCell ref="D63:D68"/>
@@ -3465,6 +3589,7 @@
     <mergeCell ref="D163:D168"/>
     <mergeCell ref="D173:D178"/>
     <mergeCell ref="D183:D188"/>
+    <mergeCell ref="D193:D198"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A29:D30"/>
@@ -3484,6 +3609,7 @@
     <mergeCell ref="A169:D170"/>
     <mergeCell ref="A179:D180"/>
     <mergeCell ref="A189:D190"/>
+    <mergeCell ref="A199:D200"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第03组/03项目计划表.xlsx
+++ b/第03组/03项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="128">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -399,6 +399,10 @@
   </si>
   <si>
     <t>日期：2018.11.19第十二周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取群成员位置信息，并在地图上显示</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -537,19 +541,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,8 +565,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209:D210"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205:B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -879,12 +883,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -973,26 +977,26 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1081,26 +1085,26 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1189,26 +1193,26 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
@@ -1297,26 +1301,26 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
@@ -1342,7 +1346,7 @@
       <c r="C43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1402,29 +1406,29 @@
       <c r="C48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="12"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
@@ -1450,7 +1454,7 @@
       <c r="C53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="10"/>
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
@@ -1510,29 +1514,29 @@
       <c r="C58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="12"/>
+      <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
@@ -1552,13 +1556,13 @@
       <c r="A63" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="10"/>
+      <c r="C63" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
@@ -1596,31 +1600,31 @@
       <c r="A68" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
     </row>
     <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
     </row>
     <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
     </row>
     <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
@@ -1640,13 +1644,13 @@
       <c r="A73" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="10"/>
+      <c r="C73" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="9"/>
     </row>
     <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
@@ -1684,31 +1688,31 @@
       <c r="A78" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
@@ -1734,7 +1738,7 @@
       <c r="C83" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="10"/>
+      <c r="D83" s="9"/>
     </row>
     <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
@@ -1794,29 +1798,29 @@
       <c r="C88" s="6">
         <v>0.12</v>
       </c>
-      <c r="D88" s="12"/>
+      <c r="D88" s="10"/>
     </row>
     <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
     </row>
     <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
     </row>
     <row r="92" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
@@ -1842,7 +1846,7 @@
       <c r="C93" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="10"/>
+      <c r="D93" s="9"/>
     </row>
     <row r="94" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
@@ -1902,29 +1906,29 @@
       <c r="C98" s="6">
         <v>0.2</v>
       </c>
-      <c r="D98" s="12"/>
+      <c r="D98" s="10"/>
     </row>
     <row r="99" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="16"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
     </row>
     <row r="101" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
     </row>
     <row r="102" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -1950,7 +1954,7 @@
       <c r="C103" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="10"/>
+      <c r="D103" s="9"/>
     </row>
     <row r="104" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
@@ -2010,29 +2014,29 @@
       <c r="C108" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D108" s="12"/>
+      <c r="D108" s="10"/>
     </row>
     <row r="109" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
     </row>
     <row r="110" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="16"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
     </row>
     <row r="111" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
     </row>
     <row r="112" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
@@ -2058,7 +2062,7 @@
       <c r="C113" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="10"/>
+      <c r="D113" s="9"/>
     </row>
     <row r="114" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="3" t="s">
@@ -2118,29 +2122,29 @@
       <c r="C118" s="6">
         <v>0.5</v>
       </c>
-      <c r="D118" s="12"/>
+      <c r="D118" s="10"/>
     </row>
     <row r="119" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
     </row>
     <row r="120" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="16"/>
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
     </row>
     <row r="121" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
     </row>
     <row r="122" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
@@ -2166,7 +2170,7 @@
       <c r="C123" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="10"/>
+      <c r="D123" s="9"/>
     </row>
     <row r="124" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="3" t="s">
@@ -2226,29 +2230,29 @@
       <c r="C128" s="6">
         <v>0.8</v>
       </c>
-      <c r="D128" s="12"/>
+      <c r="D128" s="10"/>
     </row>
     <row r="129" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="16" t="s">
+      <c r="A129" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B129" s="16"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
     </row>
     <row r="130" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="16"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
     </row>
     <row r="131" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
     </row>
     <row r="132" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
@@ -2274,7 +2278,7 @@
       <c r="C133" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="10"/>
+      <c r="D133" s="9"/>
     </row>
     <row r="134" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
@@ -2334,29 +2338,29 @@
       <c r="C138" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D138" s="12"/>
+      <c r="D138" s="10"/>
     </row>
     <row r="139" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="16" t="s">
+      <c r="A139" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B139" s="16"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
     </row>
     <row r="140" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="16"/>
-      <c r="B140" s="16"/>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16"/>
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
     </row>
     <row r="141" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
     </row>
     <row r="142" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
@@ -2380,7 +2384,7 @@
       <c r="C143" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D143" s="10"/>
+      <c r="D143" s="9"/>
     </row>
     <row r="144" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="3" t="s">
@@ -2398,10 +2402,10 @@
       <c r="A145" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D145" s="11"/>
@@ -2426,31 +2430,31 @@
       <c r="A148" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B148" s="12"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
     </row>
     <row r="149" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="16" t="s">
+      <c r="A149" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B149" s="16"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
     </row>
     <row r="150" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="16"/>
-      <c r="B150" s="16"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
     </row>
     <row r="151" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
     </row>
     <row r="152" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
@@ -2468,27 +2472,27 @@
       <c r="A153" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C153" s="13">
         <v>0.1</v>
       </c>
-      <c r="D153" s="10"/>
+      <c r="D153" s="9"/>
     </row>
     <row r="154" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B154" s="12"/>
-      <c r="C154" s="12"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
       <c r="D154" s="11"/>
     </row>
     <row r="155" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C155" s="13">
@@ -2516,31 +2520,31 @@
       <c r="A158" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
     </row>
     <row r="159" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="16" t="s">
+      <c r="A159" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B159" s="16"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="16"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
     </row>
     <row r="160" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="16"/>
-      <c r="B160" s="16"/>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
     </row>
     <row r="161" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="9" t="s">
+      <c r="A161" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
     </row>
     <row r="162" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
@@ -2558,27 +2562,27 @@
       <c r="A163" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C163" s="13">
         <v>0.2</v>
       </c>
-      <c r="D163" s="10"/>
+      <c r="D163" s="9"/>
     </row>
     <row r="164" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B164" s="12"/>
-      <c r="C164" s="12"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
       <c r="D164" s="11"/>
     </row>
     <row r="165" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C165" s="13">
@@ -2606,31 +2610,31 @@
       <c r="A168" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B168" s="12"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="12"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
     </row>
     <row r="169" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="16" t="s">
+      <c r="A169" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B169" s="16"/>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
     </row>
     <row r="170" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="16"/>
-      <c r="B170" s="16"/>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
     </row>
     <row r="171" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
     </row>
     <row r="172" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
@@ -2654,7 +2658,7 @@
       <c r="C173" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D173" s="10"/>
+      <c r="D173" s="9"/>
     </row>
     <row r="174" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="3" t="s">
@@ -2714,29 +2718,29 @@
       <c r="C178" s="6">
         <v>0.5</v>
       </c>
-      <c r="D178" s="12"/>
+      <c r="D178" s="10"/>
     </row>
     <row r="179" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="16" t="s">
+      <c r="A179" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B179" s="16"/>
-      <c r="C179" s="16"/>
-      <c r="D179" s="16"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
     </row>
     <row r="180" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="16"/>
-      <c r="B180" s="16"/>
-      <c r="C180" s="16"/>
-      <c r="D180" s="16"/>
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
     </row>
     <row r="181" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="9" t="s">
+      <c r="A181" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
     </row>
     <row r="182" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
@@ -2760,7 +2764,7 @@
       <c r="C183" s="6">
         <v>0.2</v>
       </c>
-      <c r="D183" s="10" t="s">
+      <c r="D183" s="9" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2780,7 +2784,7 @@
       <c r="A185" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C185" s="13">
@@ -2800,7 +2804,7 @@
       <c r="A187" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B187" s="12"/>
+      <c r="B187" s="10"/>
       <c r="C187" s="15"/>
       <c r="D187" s="11"/>
     </row>
@@ -2814,29 +2818,29 @@
       <c r="C188" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D188" s="12"/>
+      <c r="D188" s="10"/>
     </row>
     <row r="189" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="16" t="s">
+      <c r="A189" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B189" s="16"/>
-      <c r="C189" s="16"/>
-      <c r="D189" s="16"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
     </row>
     <row r="190" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="16"/>
-      <c r="B190" s="16"/>
-      <c r="C190" s="16"/>
-      <c r="D190" s="16"/>
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
     </row>
     <row r="191" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="9" t="s">
+      <c r="A191" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
-      <c r="D191" s="9"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
     </row>
     <row r="192" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
@@ -2854,17 +2858,17 @@
       <c r="A193" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="9" t="s">
         <v>122</v>
       </c>
       <c r="C193" s="6"/>
-      <c r="D193" s="10"/>
+      <c r="D193" s="9"/>
     </row>
     <row r="194" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B194" s="12"/>
+      <c r="B194" s="10"/>
       <c r="C194" s="6"/>
       <c r="D194" s="11"/>
     </row>
@@ -2872,7 +2876,7 @@
       <c r="A195" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C195" s="13" t="s">
@@ -2900,31 +2904,31 @@
       <c r="A198" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B198" s="12"/>
+      <c r="B198" s="10"/>
       <c r="C198" s="15"/>
-      <c r="D198" s="12"/>
+      <c r="D198" s="10"/>
     </row>
     <row r="199" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="16" t="s">
+      <c r="A199" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B199" s="16"/>
-      <c r="C199" s="16"/>
-      <c r="D199" s="16"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="8"/>
+      <c r="D199" s="8"/>
     </row>
     <row r="200" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="16"/>
-      <c r="B200" s="16"/>
-      <c r="C200" s="16"/>
-      <c r="D200" s="16"/>
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
+      <c r="D200" s="8"/>
     </row>
     <row r="201" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="9" t="s">
+      <c r="A201" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B201" s="9"/>
-      <c r="C201" s="9"/>
-      <c r="D201" s="9"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
     </row>
     <row r="202" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
@@ -2942,11 +2946,11 @@
       <c r="A203" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B203" s="10" t="s">
+      <c r="B203" s="9" t="s">
         <v>122</v>
       </c>
       <c r="C203" s="6"/>
-      <c r="D203" s="10" t="s">
+      <c r="D203" s="9" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2954,7 +2958,7 @@
       <c r="A204" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B204" s="12"/>
+      <c r="B204" s="10"/>
       <c r="C204" s="6"/>
       <c r="D204" s="11"/>
     </row>
@@ -2962,8 +2966,8 @@
       <c r="A205" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B205" s="10" t="s">
-        <v>118</v>
+      <c r="B205" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="C205" s="6"/>
       <c r="D205" s="11"/>
@@ -2988,34 +2992,86 @@
       <c r="A208" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B208" s="12"/>
+      <c r="B208" s="10"/>
       <c r="C208" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D208" s="12"/>
+      <c r="D208" s="10"/>
     </row>
     <row r="209" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="16" t="s">
+      <c r="A209" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B209" s="16"/>
-      <c r="C209" s="16"/>
-      <c r="D209" s="16"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
     </row>
     <row r="210" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="16"/>
-      <c r="B210" s="16"/>
-      <c r="C210" s="16"/>
-      <c r="D210" s="16"/>
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+      <c r="D210" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A199:D200"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="D203:D208"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="A209:D210"/>
-    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="C73:C78"/>
+    <mergeCell ref="C145:C148"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C155:C158"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="A189:D190"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="D73:D78"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="D93:D98"/>
+    <mergeCell ref="D103:D108"/>
+    <mergeCell ref="D113:D118"/>
+    <mergeCell ref="D123:D128"/>
+    <mergeCell ref="D133:D138"/>
+    <mergeCell ref="D143:D148"/>
+    <mergeCell ref="D153:D158"/>
+    <mergeCell ref="D163:D168"/>
+    <mergeCell ref="D173:D178"/>
+    <mergeCell ref="D183:D188"/>
+    <mergeCell ref="A159:D160"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="A179:D180"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A181:D181"/>
     <mergeCell ref="D193:D198"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A19:D20"/>
@@ -3032,64 +3088,12 @@
     <mergeCell ref="A129:D130"/>
     <mergeCell ref="A139:D140"/>
     <mergeCell ref="A149:D150"/>
-    <mergeCell ref="D143:D148"/>
-    <mergeCell ref="D153:D158"/>
-    <mergeCell ref="D163:D168"/>
-    <mergeCell ref="D173:D178"/>
-    <mergeCell ref="D183:D188"/>
-    <mergeCell ref="A159:D160"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="A179:D180"/>
-    <mergeCell ref="D93:D98"/>
-    <mergeCell ref="D103:D108"/>
-    <mergeCell ref="D113:D118"/>
-    <mergeCell ref="D123:D128"/>
-    <mergeCell ref="D133:D138"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="D73:D78"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="C73:C78"/>
-    <mergeCell ref="C145:C148"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="C155:C158"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="C165:C168"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="A189:D190"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A199:D200"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="D203:D208"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="A209:D210"/>
+    <mergeCell ref="A201:D201"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第03组/03项目计划表.xlsx
+++ b/第03组/03项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -403,6 +403,18 @@
   </si>
   <si>
     <t>日期：2018.11.21第十二周周三</t>
+  </si>
+  <si>
+    <t>日期：2018.11.21第十二周周四</t>
+  </si>
+  <si>
+    <t>与前端数据维护与传输</t>
+  </si>
+  <si>
+    <t>pc端整合</t>
+  </si>
+  <si>
+    <t>总结：距离我们的任务还是还有挺多事情没有做的，我们现在都在整合了，但是我们很多事情都没有优化的，稍微大一点的请求，后台就不响应了，都没有对异常做出很好的处理和友好的提示，下一阶段我们得优化一下这些异常处理，这也是程序必须做的</t>
   </si>
 </sst>
 </file>
@@ -410,12 +422,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,8 +444,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,13 +527,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -469,8 +536,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,9 +552,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,79 +588,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,7 +605,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,25 +671,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,13 +695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,85 +707,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,13 +731,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,7 +773,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,69 +860,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -929,6 +886,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -937,6 +903,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -945,10 +965,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,137 +977,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1124,9 +1144,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1135,6 +1161,27 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1484,10 +1531,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C188" workbookViewId="0">
-      <selection activeCell="D213" sqref="D213:D218"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2984,7 +3031,9 @@
       <c r="B142" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C142" s="10"/>
+      <c r="C142" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D142" s="3" t="s">
         <v>4</v>
       </c>
@@ -3078,7 +3127,9 @@
       <c r="B152" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C152" s="10"/>
+      <c r="C152" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D152" s="3" t="s">
         <v>4</v>
       </c>
@@ -3090,7 +3141,7 @@
       <c r="B153" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C153" s="12">
+      <c r="C153" s="13">
         <v>0.1</v>
       </c>
       <c r="D153" s="7"/>
@@ -3110,7 +3161,7 @@
       <c r="B155" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C155" s="12">
+      <c r="C155" s="13">
         <v>0.1</v>
       </c>
       <c r="D155" s="8"/>
@@ -3168,7 +3219,9 @@
       <c r="B162" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C162" s="10"/>
+      <c r="C162" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D162" s="3" t="s">
         <v>4</v>
       </c>
@@ -3180,7 +3233,7 @@
       <c r="B163" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C163" s="12">
+      <c r="C163" s="13">
         <v>0.2</v>
       </c>
       <c r="D163" s="7"/>
@@ -3200,7 +3253,7 @@
       <c r="B165" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C165" s="12">
+      <c r="C165" s="13">
         <v>0.2</v>
       </c>
       <c r="D165" s="8"/>
@@ -3258,7 +3311,9 @@
       <c r="B172" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="11"/>
+      <c r="C172" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="D172" s="3" t="s">
         <v>4</v>
       </c>
@@ -3282,7 +3337,7 @@
       <c r="B174" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C174" s="13" t="s">
+      <c r="C174" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D174" s="8"/>
@@ -3364,7 +3419,9 @@
       <c r="B182" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C182" s="10"/>
+      <c r="C182" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D182" s="3" t="s">
         <v>4</v>
       </c>
@@ -3402,7 +3459,7 @@
       <c r="B185" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C185" s="12">
+      <c r="C185" s="13">
         <v>0.2</v>
       </c>
       <c r="D185" s="8"/>
@@ -3412,7 +3469,7 @@
         <v>12</v>
       </c>
       <c r="B186" s="8"/>
-      <c r="C186" s="14"/>
+      <c r="C186" s="16"/>
       <c r="D186" s="8"/>
     </row>
     <row r="187" s="1" customFormat="1" spans="1:4">
@@ -3420,7 +3477,7 @@
         <v>14</v>
       </c>
       <c r="B187" s="9"/>
-      <c r="C187" s="15"/>
+      <c r="C187" s="17"/>
       <c r="D187" s="8"/>
     </row>
     <row r="188" s="1" customFormat="1" spans="1:4">
@@ -3464,7 +3521,9 @@
       <c r="B192" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C192" s="10"/>
+      <c r="C192" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D192" s="3" t="s">
         <v>4</v>
       </c>
@@ -3494,7 +3553,7 @@
       <c r="B195" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C195" s="12" t="s">
+      <c r="C195" s="13" t="s">
         <v>123</v>
       </c>
       <c r="D195" s="8"/>
@@ -3504,7 +3563,7 @@
         <v>12</v>
       </c>
       <c r="B196" s="8"/>
-      <c r="C196" s="14"/>
+      <c r="C196" s="16"/>
       <c r="D196" s="8"/>
     </row>
     <row r="197" s="1" customFormat="1" spans="1:4">
@@ -3512,7 +3571,7 @@
         <v>14</v>
       </c>
       <c r="B197" s="8"/>
-      <c r="C197" s="14"/>
+      <c r="C197" s="16"/>
       <c r="D197" s="8"/>
     </row>
     <row r="198" s="1" customFormat="1" spans="1:4">
@@ -3520,7 +3579,7 @@
         <v>16</v>
       </c>
       <c r="B198" s="9"/>
-      <c r="C198" s="15"/>
+      <c r="C198" s="17"/>
       <c r="D198" s="9"/>
     </row>
     <row r="199" s="1" customFormat="1" spans="1:4">
@@ -3552,7 +3611,9 @@
       <c r="B202" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C202" s="10"/>
+      <c r="C202" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D202" s="3" t="s">
         <v>4</v>
       </c>
@@ -3642,7 +3703,9 @@
       <c r="B212" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C212" s="10"/>
+      <c r="C212" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D212" s="3" t="s">
         <v>4</v>
       </c>
@@ -3672,7 +3735,9 @@
       <c r="B215" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C215" s="11"/>
+      <c r="C215" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="D215" s="8"/>
     </row>
     <row r="216" s="1" customFormat="1" spans="1:4">
@@ -3680,7 +3745,7 @@
         <v>12</v>
       </c>
       <c r="B216" s="8"/>
-      <c r="C216" s="11"/>
+      <c r="C216" s="19"/>
       <c r="D216" s="8"/>
     </row>
     <row r="217" s="1" customFormat="1" spans="1:4">
@@ -3688,7 +3753,7 @@
         <v>14</v>
       </c>
       <c r="B217" s="8"/>
-      <c r="C217" s="11"/>
+      <c r="C217" s="19"/>
       <c r="D217" s="8"/>
     </row>
     <row r="218" s="1" customFormat="1" spans="1:4">
@@ -3696,9 +3761,7 @@
         <v>16</v>
       </c>
       <c r="B218" s="9"/>
-      <c r="C218" s="11" t="s">
-        <v>127</v>
-      </c>
+      <c r="C218" s="20"/>
       <c r="D218" s="9"/>
     </row>
     <row r="219" s="1" customFormat="1" spans="1:4">
@@ -3710,13 +3773,105 @@
       <c r="D219" s="5"/>
     </row>
     <row r="220" s="1" customFormat="1" spans="1:4">
-      <c r="A220" s="5"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
+      <c r="A220" s="21"/>
+      <c r="B220" s="21"/>
+      <c r="C220" s="21"/>
+      <c r="D220" s="21"/>
+    </row>
+    <row r="221" s="1" customFormat="1" spans="1:4">
+      <c r="A221" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B221" s="22"/>
+      <c r="C221" s="22"/>
+      <c r="D221" s="22"/>
+    </row>
+    <row r="222" s="1" customFormat="1" spans="1:4">
+      <c r="A222" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C222" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D222" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" s="1" customFormat="1" spans="1:4">
+      <c r="A223" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C223" s="11"/>
+      <c r="D223" s="7"/>
+    </row>
+    <row r="224" s="1" customFormat="1" spans="1:4">
+      <c r="A224" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C224" s="11"/>
+      <c r="D224" s="8"/>
+    </row>
+    <row r="225" s="1" customFormat="1" spans="1:4">
+      <c r="A225" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C225" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D225" s="8"/>
+    </row>
+    <row r="226" s="1" customFormat="1" spans="1:4">
+      <c r="A226" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B226" s="8"/>
+      <c r="C226" s="19"/>
+      <c r="D226" s="8"/>
+    </row>
+    <row r="227" s="1" customFormat="1" spans="1:4">
+      <c r="A227" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" s="8"/>
+      <c r="C227" s="19"/>
+      <c r="D227" s="8"/>
+    </row>
+    <row r="228" s="1" customFormat="1" spans="1:4">
+      <c r="A228" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B228" s="9"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="9"/>
+    </row>
+    <row r="229" s="1" customFormat="1" spans="1:4">
+      <c r="A229" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+    </row>
+    <row r="230" s="1" customFormat="1" spans="1:4">
+      <c r="A230" s="5"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="91">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -3739,6 +3894,7 @@
     <mergeCell ref="A191:D191"/>
     <mergeCell ref="A201:D201"/>
     <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A221:D221"/>
     <mergeCell ref="B63:B68"/>
     <mergeCell ref="B73:B78"/>
     <mergeCell ref="B145:B148"/>
@@ -3753,6 +3909,7 @@
     <mergeCell ref="B205:B208"/>
     <mergeCell ref="B213:B214"/>
     <mergeCell ref="B215:B218"/>
+    <mergeCell ref="B225:B228"/>
     <mergeCell ref="C63:C68"/>
     <mergeCell ref="C73:C78"/>
     <mergeCell ref="C145:C148"/>
@@ -3762,6 +3919,8 @@
     <mergeCell ref="C165:C168"/>
     <mergeCell ref="C185:C187"/>
     <mergeCell ref="C195:C198"/>
+    <mergeCell ref="C215:C218"/>
+    <mergeCell ref="C225:C228"/>
     <mergeCell ref="D43:D48"/>
     <mergeCell ref="D53:D58"/>
     <mergeCell ref="D63:D68"/>
@@ -3780,6 +3939,7 @@
     <mergeCell ref="D193:D198"/>
     <mergeCell ref="D203:D208"/>
     <mergeCell ref="D213:D218"/>
+    <mergeCell ref="D223:D228"/>
     <mergeCell ref="A189:D190"/>
     <mergeCell ref="A159:D160"/>
     <mergeCell ref="A169:D170"/>
@@ -3802,6 +3962,7 @@
     <mergeCell ref="A199:D200"/>
     <mergeCell ref="A209:D210"/>
     <mergeCell ref="A219:D220"/>
+    <mergeCell ref="A229:D230"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第03组/03项目计划表.xlsx
+++ b/第03组/03项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>总结：距离我们的任务还是还有挺多事情没有做的，我们现在都在整合了，但是我们很多事情都没有优化的，稍微大一点的请求，后台就不响应了，都没有对异常做出很好的处理和友好的提示，下一阶段我们得优化一下这些异常处理，这也是程序必须做的</t>
+  </si>
+  <si>
+    <t>日期：2018.11.21第十三周周一</t>
+  </si>
+  <si>
+    <t>整体整合与测试</t>
   </si>
 </sst>
 </file>
@@ -422,8 +428,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -452,6 +458,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -459,24 +480,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,14 +495,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -506,22 +503,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,39 +518,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,6 +536,61 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,37 +617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,19 +635,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,7 +665,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,7 +725,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,85 +791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,6 +866,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -884,65 +949,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -965,10 +971,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -977,137 +983,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,26 +1168,32 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1531,10 +1543,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D230"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="B233" sqref="B233:B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3735,7 +3747,7 @@
       <c r="B215" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C215" s="18" t="s">
+      <c r="C215" s="13" t="s">
         <v>119</v>
       </c>
       <c r="D215" s="8"/>
@@ -3745,7 +3757,7 @@
         <v>12</v>
       </c>
       <c r="B216" s="8"/>
-      <c r="C216" s="19"/>
+      <c r="C216" s="16"/>
       <c r="D216" s="8"/>
     </row>
     <row r="217" s="1" customFormat="1" spans="1:4">
@@ -3753,7 +3765,7 @@
         <v>14</v>
       </c>
       <c r="B217" s="8"/>
-      <c r="C217" s="19"/>
+      <c r="C217" s="16"/>
       <c r="D217" s="8"/>
     </row>
     <row r="218" s="1" customFormat="1" spans="1:4">
@@ -3761,7 +3773,7 @@
         <v>16</v>
       </c>
       <c r="B218" s="9"/>
-      <c r="C218" s="20"/>
+      <c r="C218" s="17"/>
       <c r="D218" s="9"/>
     </row>
     <row r="219" s="1" customFormat="1" spans="1:4">
@@ -3773,30 +3785,30 @@
       <c r="D219" s="5"/>
     </row>
     <row r="220" s="1" customFormat="1" spans="1:4">
-      <c r="A220" s="21"/>
-      <c r="B220" s="21"/>
-      <c r="C220" s="21"/>
-      <c r="D220" s="21"/>
+      <c r="A220" s="18"/>
+      <c r="B220" s="18"/>
+      <c r="C220" s="18"/>
+      <c r="D220" s="18"/>
     </row>
     <row r="221" s="1" customFormat="1" spans="1:4">
-      <c r="A221" s="22" t="s">
+      <c r="A221" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B221" s="22"/>
-      <c r="C221" s="22"/>
-      <c r="D221" s="22"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
     </row>
     <row r="222" s="1" customFormat="1" spans="1:4">
-      <c r="A222" s="23" t="s">
+      <c r="A222" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B222" s="23" t="s">
+      <c r="B222" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C222" s="24" t="s">
+      <c r="C222" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D222" s="23" t="s">
+      <c r="D222" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3827,7 +3839,7 @@
       <c r="B225" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C225" s="18" t="s">
+      <c r="C225" s="13" t="s">
         <v>119</v>
       </c>
       <c r="D225" s="8"/>
@@ -3837,7 +3849,7 @@
         <v>12</v>
       </c>
       <c r="B226" s="8"/>
-      <c r="C226" s="19"/>
+      <c r="C226" s="16"/>
       <c r="D226" s="8"/>
     </row>
     <row r="227" s="1" customFormat="1" spans="1:4">
@@ -3845,7 +3857,7 @@
         <v>14</v>
       </c>
       <c r="B227" s="8"/>
-      <c r="C227" s="19"/>
+      <c r="C227" s="16"/>
       <c r="D227" s="8"/>
     </row>
     <row r="228" s="1" customFormat="1" spans="1:4">
@@ -3853,7 +3865,7 @@
         <v>16</v>
       </c>
       <c r="B228" s="9"/>
-      <c r="C228" s="20"/>
+      <c r="C228" s="17"/>
       <c r="D228" s="9"/>
     </row>
     <row r="229" s="1" customFormat="1" spans="1:4">
@@ -3870,8 +3882,94 @@
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
     </row>
+    <row r="231" s="1" customFormat="1" spans="1:4">
+      <c r="A231" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B231" s="10"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10"/>
+    </row>
+    <row r="232" s="1" customFormat="1" spans="1:4">
+      <c r="A232" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B232" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C232" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D232" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" s="1" customFormat="1" spans="1:4">
+      <c r="A233" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C233" s="22"/>
+      <c r="D233" s="7"/>
+    </row>
+    <row r="234" s="1" customFormat="1" spans="1:4">
+      <c r="A234" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234" s="23"/>
+      <c r="C234" s="24"/>
+      <c r="D234" s="8"/>
+    </row>
+    <row r="235" s="1" customFormat="1" spans="1:4">
+      <c r="A235" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" s="23"/>
+      <c r="C235" s="24"/>
+      <c r="D235" s="8"/>
+    </row>
+    <row r="236" s="1" customFormat="1" spans="1:4">
+      <c r="A236" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" s="23"/>
+      <c r="C236" s="24"/>
+      <c r="D236" s="8"/>
+    </row>
+    <row r="237" s="1" customFormat="1" spans="1:4">
+      <c r="A237" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B237" s="23"/>
+      <c r="C237" s="24"/>
+      <c r="D237" s="8"/>
+    </row>
+    <row r="238" s="1" customFormat="1" spans="1:4">
+      <c r="A238" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B238" s="25"/>
+      <c r="C238" s="26"/>
+      <c r="D238" s="9"/>
+    </row>
+    <row r="239" s="1" customFormat="1" spans="1:4">
+      <c r="A239" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+    </row>
+    <row r="240" s="1" customFormat="1" spans="1:4">
+      <c r="A240" s="5"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="91">
+  <mergeCells count="96">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -3895,6 +3993,7 @@
     <mergeCell ref="A201:D201"/>
     <mergeCell ref="A211:D211"/>
     <mergeCell ref="A221:D221"/>
+    <mergeCell ref="A231:D231"/>
     <mergeCell ref="B63:B68"/>
     <mergeCell ref="B73:B78"/>
     <mergeCell ref="B145:B148"/>
@@ -3910,6 +4009,7 @@
     <mergeCell ref="B213:B214"/>
     <mergeCell ref="B215:B218"/>
     <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B233:B238"/>
     <mergeCell ref="C63:C68"/>
     <mergeCell ref="C73:C78"/>
     <mergeCell ref="C145:C148"/>
@@ -3921,6 +4021,7 @@
     <mergeCell ref="C195:C198"/>
     <mergeCell ref="C215:C218"/>
     <mergeCell ref="C225:C228"/>
+    <mergeCell ref="C233:C238"/>
     <mergeCell ref="D43:D48"/>
     <mergeCell ref="D53:D58"/>
     <mergeCell ref="D63:D68"/>
@@ -3940,6 +4041,7 @@
     <mergeCell ref="D203:D208"/>
     <mergeCell ref="D213:D218"/>
     <mergeCell ref="D223:D228"/>
+    <mergeCell ref="D233:D238"/>
     <mergeCell ref="A189:D190"/>
     <mergeCell ref="A159:D160"/>
     <mergeCell ref="A169:D170"/>
@@ -3963,6 +4065,7 @@
     <mergeCell ref="A209:D210"/>
     <mergeCell ref="A219:D220"/>
     <mergeCell ref="A229:D230"/>
+    <mergeCell ref="A239:D240"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
